--- a/src/test/resources/LoginList (1).xlsx
+++ b/src/test/resources/LoginList (1).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ihsan\OneDrive\Masaüstü\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\IdeaProjects\Batch4_SeleniumCucumber_JUnit_YA\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103E48F8-6AD1-4695-A43A-3952FB1C9EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="4" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="104">
   <si>
     <t>Your Name</t>
   </si>
@@ -335,12 +334,18 @@
   </si>
   <si>
     <t>John</t>
+  </si>
+  <si>
+    <t>module Name</t>
+  </si>
+  <si>
+    <t>My Profile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -425,7 +430,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Köprü" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -703,22 +708,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241B906-87AB-4B90-99C3-BB6B40C54127}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>48</v>
       </c>
@@ -735,7 +740,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -752,7 +757,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -769,7 +774,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -786,7 +791,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -803,7 +808,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -820,7 +825,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -837,7 +842,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -854,7 +859,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -871,7 +876,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -888,7 +893,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -905,7 +910,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -929,20 +934,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -953,7 +958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -964,7 +969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -975,7 +980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -986,7 +991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -997,7 +1002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1008,7 +1013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1019,7 +1024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1030,7 +1035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1041,7 +1046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
@@ -1055,11 +1060,11 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{D7C802F7-2716-4A84-A3E7-E0E705A97194}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{95EA960D-2FDC-4AFC-B9A0-97947D048712}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{36141528-4D09-4281-A1E7-F6B5349E3F0C}"/>
-    <hyperlink ref="B9" r:id="rId4" xr:uid="{BE9AEEAA-5E5E-4AEC-9E21-7F547D271587}"/>
-    <hyperlink ref="B10" r:id="rId5" xr:uid="{F0C29D30-CB2E-48F0-9A5A-D911E6631F42}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B8" r:id="rId3"/>
+    <hyperlink ref="B9" r:id="rId4"/>
+    <hyperlink ref="B10" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
@@ -1067,21 +1072,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8900292A-4B57-4605-87E6-DEC02E7248D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1092,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1103,7 +1108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1114,7 +1119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1125,7 +1130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1136,7 +1141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1147,7 +1152,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1158,7 +1163,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1169,7 +1174,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1180,7 +1185,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1191,7 +1196,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
@@ -1202,7 +1207,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>95</v>
       </c>
@@ -1213,7 +1218,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>99</v>
       </c>
@@ -1226,39 +1231,40 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1" xr:uid="{93FD74B5-9E66-433C-8609-514BD95D7369}"/>
-    <hyperlink ref="A11" r:id="rId2" xr:uid="{FD62BC61-18EC-4595-955D-889BFF780C4A}"/>
-    <hyperlink ref="A10" r:id="rId3" xr:uid="{D37ACDF2-7C15-445F-974D-EACFA2677493}"/>
-    <hyperlink ref="A9" r:id="rId4" xr:uid="{D84E594C-CBB3-4639-BA3B-61799A75C92A}"/>
-    <hyperlink ref="A8" r:id="rId5" xr:uid="{DE543C11-D5BC-4198-9A24-B13C0A7E317F}"/>
-    <hyperlink ref="A3" r:id="rId6" xr:uid="{1F8A8DE5-E5A6-4D4C-BC2F-A08EB9B18E26}"/>
-    <hyperlink ref="A2" r:id="rId7" xr:uid="{4F50FBB7-6A4F-4A03-A169-C16FEB8E65C1}"/>
-    <hyperlink ref="A4" r:id="rId8" xr:uid="{ED5C2EC3-FEC0-4AEA-A0FF-480DFA431F08}"/>
-    <hyperlink ref="A13" r:id="rId9" xr:uid="{73BDD8D9-9223-4A23-8FF3-F3EE62E767D0}"/>
+    <hyperlink ref="A12" r:id="rId1"/>
+    <hyperlink ref="A11" r:id="rId2"/>
+    <hyperlink ref="A10" r:id="rId3"/>
+    <hyperlink ref="A9" r:id="rId4"/>
+    <hyperlink ref="A8" r:id="rId5"/>
+    <hyperlink ref="A3" r:id="rId6"/>
+    <hyperlink ref="A2" r:id="rId7"/>
+    <hyperlink ref="A4" r:id="rId8"/>
+    <hyperlink ref="A13" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D8DB64-3C2D-4923-B33A-9078A63670CF}">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:I10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1286,8 +1292,11 @@
       <c r="I1" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1315,8 +1324,11 @@
       <c r="I2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1344,8 +1356,11 @@
       <c r="I3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1373,8 +1388,11 @@
       <c r="I4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1402,8 +1420,11 @@
       <c r="I5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1431,8 +1452,11 @@
       <c r="I6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1460,8 +1484,11 @@
       <c r="I7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1489,8 +1516,11 @@
       <c r="I8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1518,8 +1548,11 @@
       <c r="I9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1547,39 +1580,42 @@
       <c r="I10" t="s">
         <v>44</v>
       </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{7C752E4A-B9C6-485B-BA33-A742D29E64AE}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{35C09A7B-D3D8-4A9C-A1BC-B50E0CB82EBB}"/>
-    <hyperlink ref="A8" r:id="rId3" xr:uid="{4D262BE4-5E78-42BF-81CF-011A36FC497C}"/>
-    <hyperlink ref="A9" r:id="rId4" xr:uid="{130743BF-5E7A-4794-9A97-481B6DA957D8}"/>
-    <hyperlink ref="A10" r:id="rId5" xr:uid="{16AE8D42-D171-4F1D-9B4B-24FBB227417C}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A8" r:id="rId3"/>
+    <hyperlink ref="A9" r:id="rId4"/>
+    <hyperlink ref="A10" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3714A45-665E-427B-A230-D39F020DC508}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1608,7 +1644,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1637,7 +1673,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1666,7 +1702,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1695,7 +1731,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1724,7 +1760,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1753,7 +1789,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1782,7 +1818,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1811,7 +1847,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1840,7 +1876,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
